--- a/Lab9/Lab9 Friday.xlsx
+++ b/Lab9/Lab9 Friday.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Lab 9" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Lab 9'!$C$7:$C$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Lab 9'!$D$7:$D$22</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Lab 9'!$C$7:$C$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Lab 9'!$D$7:$D$23</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Lab 9'!$G$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Lab 9'!$G$8:$G$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Lab 9'!$G$8:$G$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -498,10 +498,16 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,12 +520,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,6 +538,1234 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HRA60</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{EF1DA778-DC95-404A-B402-5E343B39BC61}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{5EA1888B-5004-4708-88E2-A8684E9F8C27}" formatIdx="1">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HRI</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{4EF2A16E-7566-40AC-A73D-E426ACBCE281}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>(HRI) Difference</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139212</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>637442</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>173646</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>783982</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271096</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78398</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -805,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:K23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,13 +2053,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:11" ht="42" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -858,15 +2086,15 @@
       <c r="F4" s="1"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="I6" s="20" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="I6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="15"/>
@@ -1106,7 +2334,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="16" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="15"/>
@@ -1200,7 +2428,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="16" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="15"/>
@@ -1280,10 +2508,10 @@
       <c r="I22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="19"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="2">
@@ -1304,10 +2532,10 @@
       <c r="I23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="19"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="2">
@@ -1328,7 +2556,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="1"/>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="16" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="15"/>
@@ -1414,32 +2642,22 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
@@ -1456,25 +2674,36 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>